--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250.6514380881763</v>
+        <v>266.5914380881763</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1310000419616699</v>
+        <v>0.1289999485015869</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.72978832722608</v>
+        <v>12.72978832722606</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>22.99312545677586</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.99312545677587</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.02354255427223</v>
+        <v>14.02354255427219</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34700000001613</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>140.5909999999585</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>43.74300000000143</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>151.5340000000232</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>182.4779999999154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>151.5340000000396</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>182.4779999999103</v>
+        <v>136.6</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.651999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
